--- a/datasets/M1_riskprem_expost.xlsx
+++ b/datasets/M1_riskprem_expost.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +449,7 @@
         <v>40575</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03714626781827129</v>
+        <v>0.03223088266273447</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         <v>40603</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.1062864587960084</v>
+        <v>-0.1086731219093305</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +465,7 @@
         <v>40634</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1870880186118649</v>
+        <v>0.1787514540519579</v>
       </c>
     </row>
     <row r="5">
@@ -473,7 +473,7 @@
         <v>40664</v>
       </c>
       <c r="B5" t="n">
-        <v>-3.405627231392245e-05</v>
+        <v>0.002253390018106661</v>
       </c>
     </row>
     <row r="6">
@@ -481,7 +481,7 @@
         <v>40695</v>
       </c>
       <c r="B6" t="n">
-        <v>0.09855438274437807</v>
+        <v>0.101422670949977</v>
       </c>
     </row>
     <row r="7">
@@ -489,7 +489,7 @@
         <v>40725</v>
       </c>
       <c r="B7" t="n">
-        <v>0.2009038133972955</v>
+        <v>0.2090937532589426</v>
       </c>
     </row>
     <row r="8">
@@ -497,7 +497,7 @@
         <v>40756</v>
       </c>
       <c r="B8" t="n">
-        <v>0.005087132079481513</v>
+        <v>-0.00150090319838482</v>
       </c>
     </row>
     <row r="9">
@@ -505,7 +505,7 @@
         <v>40787</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01875538219948342</v>
+        <v>0.01628590243655343</v>
       </c>
     </row>
     <row r="10">
@@ -513,7 +513,7 @@
         <v>40817</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1838415757492489</v>
+        <v>0.1877135024074641</v>
       </c>
     </row>
     <row r="11">
@@ -521,7 +521,7 @@
         <v>40848</v>
       </c>
       <c r="B11" t="n">
-        <v>0.06163517468116634</v>
+        <v>0.0594674663101991</v>
       </c>
     </row>
     <row r="12">
@@ -529,7 +529,7 @@
         <v>40878</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3403968928359264</v>
+        <v>0.3438935803824548</v>
       </c>
     </row>
     <row r="13">
@@ -537,7 +537,7 @@
         <v>40909</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3056326068497027</v>
+        <v>0.2986130767053494</v>
       </c>
     </row>
     <row r="14">
@@ -545,7 +545,7 @@
         <v>40940</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.1555678329493159</v>
+        <v>-0.1552036966116487</v>
       </c>
     </row>
     <row r="15">
@@ -553,7 +553,7 @@
         <v>40969</v>
       </c>
       <c r="B15" t="n">
-        <v>0.1116148108642284</v>
+        <v>0.1147755703876832</v>
       </c>
     </row>
     <row r="16">
@@ -561,7 +561,7 @@
         <v>41000</v>
       </c>
       <c r="B16" t="n">
-        <v>0.00241019166762302</v>
+        <v>0.003098817858372501</v>
       </c>
     </row>
     <row r="17">
@@ -577,7 +577,7 @@
         <v>41061</v>
       </c>
       <c r="B18" t="n">
-        <v>0.03715728715728716</v>
+        <v>0.03200371057513908</v>
       </c>
     </row>
     <row r="19">
@@ -585,7 +585,7 @@
         <v>41091</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.06265236470014611</v>
+        <v>-0.05899561189663566</v>
       </c>
     </row>
     <row r="20">
@@ -593,7 +593,7 @@
         <v>41122</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1380474767214622</v>
+        <v>-0.1391611104724681</v>
       </c>
     </row>
     <row r="21">
@@ -601,7 +601,7 @@
         <v>41153</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02369137783083976</v>
+        <v>0.02525836660075358</v>
       </c>
     </row>
     <row r="22">
@@ -609,7 +609,7 @@
         <v>41183</v>
       </c>
       <c r="B22" t="n">
-        <v>0.1042243385932578</v>
+        <v>0.09944414665129561</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>41214</v>
       </c>
       <c r="B23" t="n">
-        <v>0.07710628163143809</v>
+        <v>0.07732956236975302</v>
       </c>
     </row>
     <row r="24">
@@ -625,7 +625,7 @@
         <v>41244</v>
       </c>
       <c r="B24" t="n">
-        <v>0.3310413109036079</v>
+        <v>0.3290702321694583</v>
       </c>
     </row>
     <row r="25">
@@ -633,7 +633,7 @@
         <v>41275</v>
       </c>
       <c r="B25" t="n">
-        <v>0.1166761016595656</v>
+        <v>0.09912701486756258</v>
       </c>
     </row>
     <row r="26">
@@ -641,7 +641,7 @@
         <v>41306</v>
       </c>
       <c r="B26" t="n">
-        <v>0.06261306693562582</v>
+        <v>0.05790628051806677</v>
       </c>
     </row>
     <row r="27">
@@ -649,614 +649,654 @@
         <v>41334</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.01469181020260005</v>
+        <v>-0.01290173562990816</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>41518</v>
+        <v>41365</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.1105890250041953</v>
+        <v>-0.041343964554781</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>41548</v>
+        <v>41395</v>
       </c>
       <c r="B29" t="n">
-        <v>0.09980413790744003</v>
+        <v>0.09157125897905395</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>41579</v>
+        <v>41426</v>
       </c>
       <c r="B30" t="n">
-        <v>0.06972553486276739</v>
+        <v>0.1106185678172211</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>41609</v>
+        <v>41456</v>
       </c>
       <c r="B31" t="n">
-        <v>0.0727369522847037</v>
+        <v>-0.1626296352058666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>41640</v>
+        <v>41487</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1189001088021871</v>
+        <v>-0.07282728829718116</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>41671</v>
+        <v>41518</v>
       </c>
       <c r="B33" t="n">
-        <v>0.1977670264235206</v>
+        <v>-0.1117876920864</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>41699</v>
+        <v>41548</v>
       </c>
       <c r="B34" t="n">
-        <v>0.05498056819834986</v>
+        <v>0.1016601236753648</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>41730</v>
+        <v>41579</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.01972580185542859</v>
+        <v>0.06462553231276605</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>41760</v>
+        <v>41609</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.04984095553074511</v>
+        <v>0.07413556630332775</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>41791</v>
+        <v>41640</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.05623466711784111</v>
+        <v>0.1177851111850449</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>41821</v>
+        <v>41671</v>
       </c>
       <c r="B38" t="n">
-        <v>0.01947887680242854</v>
+        <v>0.196873836992929</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>41852</v>
+        <v>41699</v>
       </c>
       <c r="B39" t="n">
-        <v>0.09346053452218703</v>
+        <v>0.05175925348629379</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>41883</v>
+        <v>41730</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.03758995046137069</v>
+        <v>-0.02162555805338326</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>41913</v>
+        <v>41760</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.03527559631683963</v>
+        <v>-0.04167807714183398</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>41944</v>
+        <v>41791</v>
       </c>
       <c r="B42" t="n">
-        <v>-0.03114060008431236</v>
+        <v>-0.06892394890449194</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>41974</v>
+        <v>41821</v>
       </c>
       <c r="B43" t="n">
-        <v>0.04377206747744208</v>
+        <v>0.01947887680242854</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>42005</v>
+        <v>41852</v>
       </c>
       <c r="B44" t="n">
-        <v>0.2554018238174387</v>
+        <v>0.09739899748215559</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>42036</v>
+        <v>41883</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.1134844903557151</v>
+        <v>-0.0384523250577313</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>42064</v>
+        <v>41913</v>
       </c>
       <c r="B46" t="n">
-        <v>0.0329714474063697</v>
+        <v>-0.03385688395848212</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>42095</v>
+        <v>41944</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02443619562413787</v>
+        <v>-0.03086566835902419</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>42125</v>
+        <v>41974</v>
       </c>
       <c r="B48" t="n">
-        <v>0.1140440147563923</v>
+        <v>0.03829933307179281</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>42156</v>
+        <v>42005</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.01048826998980005</v>
+        <v>0.2707200934369526</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>42186</v>
+        <v>42036</v>
       </c>
       <c r="B50" t="n">
-        <v>-0.1756231103900891</v>
+        <v>-0.0780783409690001</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>42217</v>
+        <v>42064</v>
       </c>
       <c r="B51" t="n">
-        <v>-0.03975301081853432</v>
+        <v>0.02977833628610267</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>42248</v>
+        <v>42095</v>
       </c>
       <c r="B52" t="n">
-        <v>0.05548759449201725</v>
+        <v>0.02611835686490003</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>42278</v>
+        <v>42125</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.1643520225483207</v>
+        <v>0.1219310520290039</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>42309</v>
+        <v>42156</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.007409694350108119</v>
+        <v>-0.007162180141026218</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>42339</v>
+        <v>42186</v>
       </c>
       <c r="B55" t="n">
-        <v>0.09248722712494196</v>
+        <v>-0.1727656515006267</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>42370</v>
+        <v>42217</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.02538465811253672</v>
+        <v>-0.03975301081853432</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>42401</v>
+        <v>42248</v>
       </c>
       <c r="B57" t="n">
-        <v>0.3097067586639485</v>
+        <v>0.05548759449201725</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>42430</v>
+        <v>42278</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.1085209537092383</v>
+        <v>-0.1656220042769706</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>42461</v>
+        <v>42309</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.0005781779136036733</v>
+        <v>-0.005866008027168809</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>42491</v>
+        <v>42339</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.02624536699151384</v>
+        <v>0.0870877844867626</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>42522</v>
+        <v>42370</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.109936931298445</v>
+        <v>-0.02194078764650335</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>42552</v>
+        <v>42401</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.01613572996381334</v>
+        <v>0.302885369295907</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>42583</v>
+        <v>42430</v>
       </c>
       <c r="B63" t="n">
-        <v>0.0263804336217025</v>
+        <v>-0.1085209537092383</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>42614</v>
+        <v>42461</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.04900364002055027</v>
+        <v>0.00644255389444133</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>42644</v>
+        <v>42491</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.2189332661447972</v>
+        <v>-0.0306816067774294</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>42675</v>
+        <v>42522</v>
       </c>
       <c r="B66" t="n">
-        <v>0.01640373597048904</v>
+        <v>-0.1081315295363729</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>42705</v>
+        <v>42552</v>
       </c>
       <c r="B67" t="n">
-        <v>0.1606689446820964</v>
+        <v>-0.01797472859939503</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>42736</v>
+        <v>42583</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.236255681888173</v>
+        <v>0.02821982507980594</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>42767</v>
+        <v>42614</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05913678642750466</v>
+        <v>-0.04736399112403396</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>42795</v>
+        <v>42644</v>
       </c>
       <c r="B70" t="n">
-        <v>0.1499592916751476</v>
+        <v>-0.2121999322322523</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>42826</v>
+        <v>42675</v>
       </c>
       <c r="B71" t="n">
-        <v>0.03914097679251815</v>
+        <v>0.03079297804986526</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>42856</v>
+        <v>42705</v>
       </c>
       <c r="B72" t="n">
-        <v>0.04886107316453283</v>
+        <v>0.1539984335057625</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>42887</v>
+        <v>42736</v>
       </c>
       <c r="B73" t="n">
-        <v>0.008277317926781897</v>
+        <v>-0.2343463210928934</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>42917</v>
+        <v>42767</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.01695494967262763</v>
+        <v>0.04780238562150294</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>42948</v>
+        <v>42795</v>
       </c>
       <c r="B75" t="n">
-        <v>0.03733138136568025</v>
+        <v>0.1562690820272745</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>42979</v>
+        <v>42826</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.01013159427040873</v>
+        <v>0.0374090751645306</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>43009</v>
+        <v>42856</v>
       </c>
       <c r="B77" t="n">
-        <v>0.3399001330800642</v>
+        <v>0.05050248329468079</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>43040</v>
+        <v>42887</v>
       </c>
       <c r="B78" t="n">
-        <v>0.01565596512088778</v>
+        <v>0.008277317926781897</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>43070</v>
+        <v>42917</v>
       </c>
       <c r="B79" t="n">
-        <v>0.24</v>
+        <v>-0.01544024235317106</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>43101</v>
+        <v>42948</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5002408794288969</v>
+        <v>0.04057304193244805</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>43132</v>
+        <v>42979</v>
       </c>
       <c r="B81" t="n">
-        <v>0.01332763547982156</v>
+        <v>-0.01013159427040873</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>43160</v>
+        <v>43009</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.04987610833398076</v>
+        <v>0.3416631595709589</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>43191</v>
+        <v>43040</v>
       </c>
       <c r="B83" t="n">
-        <v>0.04817660943982866</v>
+        <v>0.01813317479191437</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>43221</v>
+        <v>43070</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.03110093860593927</v>
+        <v>0.1993709043250327</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>43252</v>
+        <v>43101</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.09721622025095675</v>
+        <v>0.4985437743616695</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>43282</v>
+        <v>43132</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.1007852380456297</v>
+        <v>0.01332763547982156</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>43313</v>
+        <v>43160</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.1261790354155544</v>
+        <v>-0.04987610833398076</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>43344</v>
+        <v>43191</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.00240735337029468</v>
+        <v>0.05129618268220915</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>43374</v>
+        <v>43221</v>
       </c>
       <c r="B89" t="n">
-        <v>0.1407370523976368</v>
+        <v>-0.0296103246653331</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>43405</v>
+        <v>43252</v>
       </c>
       <c r="B90" t="n">
-        <v>0.05334972269436398</v>
+        <v>-0.09485908244482344</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>43435</v>
+        <v>43282</v>
       </c>
       <c r="B91" t="n">
-        <v>0.2247339356083962</v>
+        <v>-0.09977601833524316</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>43466</v>
+        <v>43313</v>
       </c>
       <c r="B92" t="n">
-        <v>0.262310606060606</v>
+        <v>-0.1413062822566294</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>43497</v>
+        <v>43344</v>
       </c>
       <c r="B93" t="n">
-        <v>0.4245441958998481</v>
+        <v>-0.00240735337029468</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>43525</v>
+        <v>43374</v>
       </c>
       <c r="B94" t="n">
-        <v>0.3518580938737675</v>
+        <v>0.1350898392669554</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>43556</v>
+        <v>43405</v>
       </c>
       <c r="B95" t="n">
-        <v>0.00119060504383583</v>
+        <v>0.03923448352928029</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>43586</v>
+        <v>43435</v>
       </c>
       <c r="B96" t="n">
-        <v>0.08208668968162645</v>
+        <v>0.2153848215961183</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>43617</v>
+        <v>43466</v>
       </c>
       <c r="B97" t="n">
-        <v>0.1627644743316386</v>
+        <v>0.2592737722048066</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>43647</v>
+        <v>43497</v>
       </c>
       <c r="B98" t="n">
-        <v>-0.06385901594036801</v>
+        <v>0.4292148326077165</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>43678</v>
+        <v>43525</v>
       </c>
       <c r="B99" t="n">
-        <v>0.1710043683413435</v>
+        <v>0.3518580938737675</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>43709</v>
+        <v>43556</v>
       </c>
       <c r="B100" t="n">
-        <v>0.1146229581561873</v>
+        <v>-0.009633077172854249</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>43739</v>
+        <v>43586</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1661967897075124</v>
+        <v>0.07680177300430464</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>43770</v>
+        <v>43617</v>
       </c>
       <c r="B102" t="n">
-        <v>0.1085005365679165</v>
+        <v>0.1578440216499918</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B103" t="n">
+        <v>-0.06385901594036801</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.1655767698785796</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.124412620272992</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.1621381001841685</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.104842118955481</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
         <v>43800</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B108" t="n">
         <v>0.162108980827447</v>
       </c>
     </row>
